--- a/docs/pdfs/diagrama_atual.xlsx
+++ b/docs/pdfs/diagrama_atual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\PEI\docs\pdfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFA775E-8D42-42C6-9183-4306107CF5B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB115E-E14E-404E-947C-896650568BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,35 +609,35 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,9 +1216,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10172700" cy="5191125"/>
     <xdr:graphicFrame macro="">
@@ -1450,8 +1450,8 @@
   </sheetPr>
   <dimension ref="A1:BB1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE18" sqref="BE18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1544,16 +1544,16 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:54" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="40"/>
       <c r="J3" s="43"/>
       <c r="K3" s="43"/>
@@ -1648,26 +1648,26 @@
       <c r="AW5" s="4"/>
     </row>
     <row r="6" spans="1:54" ht="15.75" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="59" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="62"/>
@@ -1675,69 +1675,69 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
       <c r="M6" s="63"/>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="57" t="s">
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="58" t="s">
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="54" t="s">
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="66" t="s">
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="54" t="s">
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55"/>
-      <c r="BB6" s="55"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
     </row>
     <row r="7" spans="1:54" ht="17.25" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2170,7 +2170,7 @@
         <v>54</v>
       </c>
       <c r="H16" s="50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2209,7 +2209,7 @@
         <v>54</v>
       </c>
       <c r="H17" s="50">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X17" s="29"/>
       <c r="Y17" s="29"/>
@@ -2368,7 +2368,7 @@
         <v>55</v>
       </c>
       <c r="H22" s="50">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
@@ -16293,6 +16293,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AX6:BB6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="AH6:AL6"/>
     <mergeCell ref="AM6:AO6"/>
@@ -16308,10 +16312,6 @@
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AX6:BB6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:H18 H9:H13 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
